--- a/Robot Facturación Cemento/Data/Config.xlsx
+++ b/Robot Facturación Cemento/Data/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Variable</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>strDiaFeriado</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Facturación Cemento\Data\Descarga_Diaria</t>
+  </si>
+  <si>
+    <t>strRutaExcelDiario</t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,6 +404,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Robot Facturación Cemento/Data/Config.xlsx
+++ b/Robot Facturación Cemento/Data/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Variable</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>strRutaExcelDiario</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Facturación Cemento\Data\Descarga_Mensual</t>
+  </si>
+  <si>
+    <t>strCarpetaDescargaMensual</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +418,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
